--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Desktop\3er Trimestre Fracciones faltantes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8655" tabRatio="797"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -24,20 +24,16 @@
     <sheet name="Tabla_393951" sheetId="10" r:id="rId10"/>
     <sheet name="Tabla_393952" sheetId="11" r:id="rId11"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId12"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Hidden_1_Tabla_3939507">Hidden_1_Tabla_393950!$A$1:$A$3</definedName>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$3</definedName>
     <definedName name="Hidden_25">Hidden_2!$A$1:$A$4</definedName>
     <definedName name="Hidden_37">Hidden_3!$A$1:$A$10</definedName>
     <definedName name="Hidden_49">Hidden_4!$A$1:$A$2</definedName>
-    <definedName name="Hidden_50">[1]Hidden_4!$A$1:$A$2</definedName>
     <definedName name="Hidden_518">Hidden_5!$A$1:$A$4</definedName>
     <definedName name="Hidden_622">Hidden_6!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -577,10 +573,10 @@
     <t>Hipervínculo a la factura</t>
   </si>
   <si>
-    <t>Dirección de Comunicación Social (UPP)</t>
-  </si>
-  <si>
     <t>En este período la Dirección de Comunicación no ejerció recursos para la contratación de publicidad oficial.</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
   </si>
 </sst>
 </file>
@@ -600,13 +596,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -702,7 +696,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -719,12 +713,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -736,6 +734,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -783,50 +782,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Reporte de Formatos"/>
-      <sheetName val="Hidden_1"/>
-      <sheetName val="Hidden_2"/>
-      <sheetName val="Hidden_3"/>
-      <sheetName val="Hidden_4"/>
-      <sheetName val="Hidden_5"/>
-      <sheetName val="Hidden_6"/>
-      <sheetName val="Tabla_393950"/>
-      <sheetName val="Hidden_1_Tabla_393950"/>
-      <sheetName val="Tabla_393951"/>
-      <sheetName val="Tabla_393952"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Campaña</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Aviso institucional</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1119,7 +1074,7 @@
   <dimension ref="A1:AH8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1164,38 +1119,38 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:34" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1406,42 +1361,42 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
     </row>
     <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1547,15 +1502,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>2020</v>
       </c>
-      <c r="B8" s="7">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="7">
-        <v>44104</v>
+      <c r="B8" s="6">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44196</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -1585,16 +1540,16 @@
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>44206</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>44206</v>
+      </c>
+      <c r="AH8" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>44114</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>44114</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -1617,14 +1572,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
       <formula1>Hidden_37</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8">
+      <formula1>Hidden_49</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8">
       <formula1>Hidden_518</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
       <formula1>Hidden_622</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8">
-      <formula1>Hidden_50</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1642,7 +1597,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A4" sqref="A4:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1775,7 +1730,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J4" sqref="A4:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,22 +1872,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1951,28 +1911,31 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="82.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1990,57 +1953,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="15" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="15" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="15" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="15" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="15" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="15" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2058,17 +2026,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2087,28 +2060,31 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2126,22 +2102,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2159,8 +2140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="I4" sqref="A4:XFD110"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2235,35 +2216,35 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="7" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2283,23 +2264,26 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>131</v>
       </c>
     </row>

--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\Vo.Bo. Uno UPP 4T 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" tabRatio="797"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="6990" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <definedName name="Hidden_518">Hidden_5!$A$1:$A$4</definedName>
     <definedName name="Hidden_622">Hidden_6!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -573,10 +573,10 @@
     <t>Hipervínculo a la factura</t>
   </si>
   <si>
-    <t>En este período la Dirección de Comunicación no ejerció recursos para la contratación de publicidad oficial.</t>
-  </si>
-  <si>
     <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
+  </si>
+  <si>
+    <t>En este período la Universidad Politécnica de Pachuca no ejerció recursos para la contratación de publicidad oficial.</t>
   </si>
 </sst>
 </file>
@@ -596,11 +596,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -696,7 +698,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -716,13 +718,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -734,7 +735,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
@@ -1073,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="AF2" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,38 +1119,38 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:34" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1361,42 +1361,42 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
     </row>
     <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1502,15 +1502,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2020</v>
+    <row r="8" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2021</v>
       </c>
       <c r="B8" s="6">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="6">
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="3"/>
@@ -1535,21 +1535,21 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
+      <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
+      <c r="AD8" s="7"/>
       <c r="AE8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>44298</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>44298</v>
+      </c>
+      <c r="AH8" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>44206</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>44206</v>
-      </c>
-      <c r="AH8" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1597,7 +1597,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD33"/>
+      <selection activeCell="A4" sqref="A4:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,7 +1730,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="J4" sqref="A4:XFD62"/>
+      <selection activeCell="J4" sqref="A4:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,26 +1873,23 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A4" sqref="A4:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1911,31 +1908,28 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="A5" sqref="A5:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="82.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1954,61 +1948,58 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A10"/>
+      <selection activeCell="A11" sqref="A11:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2027,21 +2018,18 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="A3" sqref="A3:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2060,31 +2048,28 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="A5" sqref="A5:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2103,26 +2088,23 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A4" sqref="A4:XFD79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2141,7 +2123,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD32"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,39 +2198,44 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="1" t="s">
         <v>128</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H37">
+      <formula1>Hidden_1_Tabla_3939507</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2264,26 +2251,23 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="A4" sqref="A4:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" t="s">
         <v>131</v>
       </c>
     </row>

--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\2do Trimestre UPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20355" windowHeight="6990" tabRatio="797"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -33,17 +33,12 @@
     <definedName name="Hidden_518">Hidden_5!$A$1:$A$4</definedName>
     <definedName name="Hidden_622">Hidden_6!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="206">
   <si>
     <t>46588</t>
   </si>
@@ -573,17 +568,107 @@
     <t>Hipervínculo a la factura</t>
   </si>
   <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
-  </si>
-  <si>
-    <t>En este período la Universidad Politécnica de Pachuca no ejerció recursos para la contratación de publicidad oficial.</t>
+    <t>Dirección de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Publicación banner</t>
+  </si>
+  <si>
+    <t>10 Banners digitales</t>
+  </si>
+  <si>
+    <t>Promoción escolar</t>
+  </si>
+  <si>
+    <t>Convocatoria examen admisión</t>
+  </si>
+  <si>
+    <t>Difundir los diferentes eventos, internos y externos</t>
+  </si>
+  <si>
+    <t>Mayor captación de estudiantes</t>
+  </si>
+  <si>
+    <t>Dirección de Planeación</t>
+  </si>
+  <si>
+    <t>Componente 2</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>18-25</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Impresiones y publicaciones</t>
+  </si>
+  <si>
+    <t>Publicación Banner digital</t>
+  </si>
+  <si>
+    <t>CRI3608</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1dlp-t2dB3hbdJ0zyrPxHNCHfzXgU9ZKA/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Difusión Spots radio</t>
+  </si>
+  <si>
+    <t>Difusión por Televisión, Radio y otros Medios</t>
+  </si>
+  <si>
+    <t>Difusión por Televisión, Radio</t>
+  </si>
+  <si>
+    <t>AEKY-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1qbAbAOuRBUyBAqYm65HNphTmzeHujBUQ/view?usp=sharing </t>
+  </si>
+  <si>
+    <t>30 Spots</t>
+  </si>
+  <si>
+    <t>Grupo Impresor Criterio</t>
+  </si>
+  <si>
+    <t>Criterio</t>
+  </si>
+  <si>
+    <t>RFC: GIC140523LG9</t>
+  </si>
+  <si>
+    <t>Revista que promueve la oferta educativa de varias universidades del estado y se distribuye en puntos de encuentro de jóvenes.</t>
+  </si>
+  <si>
+    <t>Editorial Caballero</t>
+  </si>
+  <si>
+    <t>Grupo 7</t>
+  </si>
+  <si>
+    <t>R.F.C.: ECA7202016T2</t>
+  </si>
+  <si>
+    <t>Estación de radio que tiene como radioescuchas a jóvenes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -596,26 +681,16 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -663,42 +738,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -709,20 +753,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -730,45 +775,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -795,39 +812,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,211 +923,187 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF2" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="48.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="44" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.28515625" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="46" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="40.7109375" customWidth="1"/>
+    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
@@ -1119,38 +1112,38 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:34" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:34" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1361,42 +1354,42 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
     </row>
     <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1502,55 +1495,209 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="6">
-        <v>44197</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="7"/>
-      <c r="AE8" s="4" t="s">
+      <c r="B8" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="AF8" s="6">
-        <v>44298</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>44298</v>
-      </c>
-      <c r="AH8" s="8" t="s">
+      <c r="F8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>176</v>
       </c>
+      <c r="H8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2021</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P8" s="6">
+        <v>5700</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="U8" s="4">
+        <v>44287</v>
+      </c>
+      <c r="V8" s="4">
+        <v>44316</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>44386</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>44386</v>
+      </c>
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44287</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44377</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2021</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P9" s="6">
+        <v>7508</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="U9" s="4">
+        <v>44375</v>
+      </c>
+      <c r="V9" s="4">
+        <v>44384</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>44386</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>44386</v>
+      </c>
+      <c r="AH9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1563,56 +1710,50 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D106">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F106">
       <formula1>Hidden_25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H106">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J106">
       <formula1>Hidden_49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S106">
       <formula1>Hidden_518</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W106">
       <formula1>Hidden_622</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44" customWidth="1"/>
+    <col min="11" max="11" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1679,7 +1820,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
@@ -1714,39 +1855,95 @@
         <v>151</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="3">
+        <v>361002</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="15">
+        <v>5700</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="15">
+        <v>5700</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="I4" s="15">
+        <v>5700</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="15">
+        <v>5700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="3">
+        <v>36201</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="15">
+        <v>7508</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="15">
+        <v>7508</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I5" s="15">
+        <v>7508</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="15">
+        <v>7508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="J4" sqref="A4:XFD57"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="93.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="86.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="92.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1857,14 +2054,65 @@
         <v>174</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15">
+        <v>5700</v>
+      </c>
+      <c r="I4" s="4">
+        <v>44287</v>
+      </c>
+      <c r="J4" s="4">
+        <v>44316</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15">
+        <v>7508</v>
+      </c>
+      <c r="I5" s="4">
+        <v>44375</v>
+      </c>
+      <c r="J5" s="4">
+        <v>44384</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1"/>
+    <hyperlink ref="L5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1872,9 +2120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1895,11 +2141,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1907,9 +2148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD88"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1935,11 +2174,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1947,9 +2181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD75"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2005,11 +2237,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2017,9 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD74"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2035,11 +2260,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2047,9 +2267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD67"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2075,11 +2293,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2087,9 +2300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD79"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2110,33 +2321,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="121.28515625" customWidth="1"/>
+    <col min="9" max="9" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2230,19 +2436,61 @@
         <v>128</v>
       </c>
     </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H37">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201">
       <formula1>Hidden_1_Tabla_3939507</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2251,7 +2499,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD52"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,10 +2521,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\2do Trimestre UPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" tabRatio="797"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,17 @@
     <definedName name="Hidden_518">Hidden_5!$A$1:$A$4</definedName>
     <definedName name="Hidden_622">Hidden_6!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="177">
   <si>
     <t>46588</t>
   </si>
@@ -568,107 +573,17 @@
     <t>Hipervínculo a la factura</t>
   </si>
   <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>Publicación banner</t>
-  </si>
-  <si>
-    <t>10 Banners digitales</t>
-  </si>
-  <si>
-    <t>Promoción escolar</t>
-  </si>
-  <si>
-    <t>Convocatoria examen admisión</t>
-  </si>
-  <si>
-    <t>Difundir los diferentes eventos, internos y externos</t>
-  </si>
-  <si>
-    <t>Mayor captación de estudiantes</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación</t>
-  </si>
-  <si>
-    <t>Componente 2</t>
-  </si>
-  <si>
-    <t>Hidalgo</t>
-  </si>
-  <si>
-    <t>Superior</t>
-  </si>
-  <si>
-    <t>18-25</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>Impresiones y publicaciones</t>
-  </si>
-  <si>
-    <t>Publicación Banner digital</t>
-  </si>
-  <si>
-    <t>CRI3608</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1dlp-t2dB3hbdJ0zyrPxHNCHfzXgU9ZKA/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>Difusión Spots radio</t>
-  </si>
-  <si>
-    <t>Difusión por Televisión, Radio y otros Medios</t>
-  </si>
-  <si>
-    <t>Difusión por Televisión, Radio</t>
-  </si>
-  <si>
-    <t>AEKY-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://drive.google.com/file/d/1qbAbAOuRBUyBAqYm65HNphTmzeHujBUQ/view?usp=sharing </t>
-  </si>
-  <si>
-    <t>30 Spots</t>
-  </si>
-  <si>
-    <t>Grupo Impresor Criterio</t>
-  </si>
-  <si>
-    <t>Criterio</t>
-  </si>
-  <si>
-    <t>RFC: GIC140523LG9</t>
-  </si>
-  <si>
-    <t>Revista que promueve la oferta educativa de varias universidades del estado y se distribuye en puntos de encuentro de jóvenes.</t>
-  </si>
-  <si>
-    <t>Editorial Caballero</t>
-  </si>
-  <si>
-    <t>Grupo 7</t>
-  </si>
-  <si>
-    <t>R.F.C.: ECA7202016T2</t>
-  </si>
-  <si>
-    <t>Estación de radio que tiene como radioescuchas a jóvenes</t>
+    <t>En este período la Dirección de Comunicación no ejerció recursos para la contratación de publicidad oficial.</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -681,16 +596,33 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -738,11 +670,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -753,39 +716,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="33">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -812,39 +800,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -923,187 +911,211 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
+    <col min="9" max="9" width="48.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="44" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="42.28515625" customWidth="1"/>
     <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="46" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
@@ -1112,38 +1124,38 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="10" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:34" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:34" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1354,42 +1366,42 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
     </row>
     <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1495,209 +1507,55 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="4">
-        <v>44287</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="B8" s="6">
+        <v>44378</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF8" s="6">
+        <v>44480</v>
+      </c>
+      <c r="AG8" s="6">
+        <v>44480</v>
+      </c>
+      <c r="AH8" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2021</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="P8" s="6">
-        <v>5700</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="U8" s="4">
-        <v>44287</v>
-      </c>
-      <c r="V8" s="4">
-        <v>44316</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>44386</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>44386</v>
-      </c>
-      <c r="AH8" s="3"/>
-    </row>
-    <row r="9" spans="1:34" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44287</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44377</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2021</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="P9" s="6">
-        <v>7508</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="U9" s="4">
-        <v>44375</v>
-      </c>
-      <c r="V9" s="4">
-        <v>44384</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z9" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA9" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF9" s="4">
-        <v>44386</v>
-      </c>
-      <c r="AG9" s="4">
-        <v>44386</v>
-      </c>
-      <c r="AH9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1710,50 +1568,56 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D106">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F106">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
       <formula1>Hidden_25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H106">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J106">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8">
       <formula1>Hidden_49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S106">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8">
       <formula1>Hidden_518</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W106">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
       <formula1>Hidden_622</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="A3" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1820,7 +1684,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
@@ -1855,95 +1719,39 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="3">
-        <v>361002</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="15">
-        <v>5700</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="15">
-        <v>5700</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="I4" s="15">
-        <v>5700</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="15">
-        <v>5700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="3">
-        <v>36201</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="15">
-        <v>7508</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="15">
-        <v>7508</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="I5" s="15">
-        <v>7508</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="15">
-        <v>7508</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="J3" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.42578125" customWidth="1"/>
     <col min="6" max="6" width="53" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="92.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="86.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2054,65 +1862,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15">
-        <v>5700</v>
-      </c>
-      <c r="I4" s="4">
-        <v>44287</v>
-      </c>
-      <c r="J4" s="4">
-        <v>44316</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15">
-        <v>7508</v>
-      </c>
-      <c r="I5" s="4">
-        <v>44375</v>
-      </c>
-      <c r="J5" s="4">
-        <v>44384</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>196</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1"/>
-    <hyperlink ref="L5" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2141,6 +1898,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2148,7 +1910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2174,6 +1938,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2237,6 +2006,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2260,6 +2034,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2267,7 +2046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2293,6 +2074,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2321,28 +2107,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="I3" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="121.28515625" customWidth="1"/>
     <col min="10" max="10" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2436,61 +2227,19 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7" t="s">
-        <v>205</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H64">
       <formula1>Hidden_1_Tabla_3939507</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2499,7 +2248,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2521,5 +2270,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065" tabRatio="797"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -33,12 +33,7 @@
     <definedName name="Hidden_518">Hidden_5!$A$1:$A$4</definedName>
     <definedName name="Hidden_622">Hidden_6!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -583,7 +578,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -596,36 +591,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -670,42 +640,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -716,64 +654,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="33">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="32" builtinId="9" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -800,39 +693,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -911,166 +804,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -1078,44 +947,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+    <sheetView tabSelected="1" topLeftCell="AE2" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="34.28515625" customWidth="1"/>
-    <col min="9" max="9" width="48.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="44" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.28515625" customWidth="1"/>
+    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
     <col min="28" max="30" width="46" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="40.7109375" customWidth="1"/>
+    <col min="34" max="34" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
@@ -1124,38 +993,38 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:34" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1366,42 +1235,42 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
     </row>
     <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1507,53 +1376,53 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2021</v>
       </c>
-      <c r="B8" s="6">
-        <v>44378</v>
-      </c>
-      <c r="C8" s="6">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="4"/>
+      <c r="B8" s="4">
+        <v>44470</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="4"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="8" t="s">
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="AF8" s="6">
-        <v>44480</v>
-      </c>
-      <c r="AG8" s="6">
-        <v>44480</v>
-      </c>
-      <c r="AH8" s="7" t="s">
+      <c r="AF8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>44571</v>
+      </c>
+      <c r="AH8" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1568,32 +1437,27 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D32">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F32">
       <formula1>Hidden_25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H32">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J32">
       <formula1>Hidden_49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S32">
       <formula1>Hidden_518</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W32">
       <formula1>Hidden_622</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1601,23 +1465,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="112" zoomScaleNormal="112" zoomScalePageLayoutView="112" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44" customWidth="1"/>
+    <col min="11" max="11" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -1684,7 +1546,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
@@ -1721,12 +1583,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1734,24 +1590,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="93.42578125" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="86.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1864,12 +1718,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1898,11 +1746,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1910,9 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1938,11 +1779,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2006,11 +1842,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2034,11 +1865,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2046,9 +1872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2074,11 +1898,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2107,11 +1926,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2119,21 +1933,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="50.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="121.28515625" customWidth="1"/>
+    <col min="9" max="9" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2229,17 +2041,11 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H64">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201">
       <formula1>Hidden_1_Tabla_3939507</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2247,9 +2053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2270,10 +2074,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\Vo. Bo. 1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -568,10 +563,10 @@
     <t>Hipervínculo a la factura</t>
   </si>
   <si>
+    <t>Dirección de Comunicación Social (UPP)</t>
+  </si>
+  <si>
     <t>En este período la Dirección de Comunicación no ejerció recursos para la contratación de publicidad oficial.</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional (UPP)</t>
   </si>
 </sst>
 </file>
@@ -591,11 +586,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -616,7 +613,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -639,11 +636,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -657,14 +663,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,7 +955,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -947,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE2" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="AF2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,10 +977,10 @@
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
     <col min="11" max="11" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
@@ -984,7 +1002,7 @@
     <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="38.7109375" customWidth="1"/>
+    <col min="34" max="34" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
@@ -992,39 +1010,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:34" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1235,42 +1255,42 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
     </row>
     <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1378,13 +1398,13 @@
     </row>
     <row r="8" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="4">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="4">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1414,16 +1434,16 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>44659</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>44659</v>
+      </c>
+      <c r="AH8" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>44571</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1431,33 +1451,32 @@
     <mergeCell ref="A6:AH6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G2:J2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D32">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F32">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
       <formula1>Hidden_25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H32">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J32">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
       <formula1>Hidden_49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S32">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S201">
       <formula1>Hidden_518</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W32">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201">
       <formula1>Hidden_622</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1590,7 +1609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="6975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,12 @@
     <definedName name="Hidden_518">Hidden_5!$A$1:$A$4</definedName>
     <definedName name="Hidden_622">Hidden_6!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="226">
   <si>
     <t>46588</t>
   </si>
@@ -425,15 +425,9 @@
     <t>Descripción breve del las razones que justifican</t>
   </si>
   <si>
-    <t>Licitación pública</t>
-  </si>
-  <si>
     <t>Adjudicación directa</t>
   </si>
   <si>
-    <t>Invitación restringida</t>
-  </si>
-  <si>
     <t>51016</t>
   </si>
   <si>
@@ -566,14 +560,168 @@
     <t>Dirección de Comunicación Social (UPP)</t>
   </si>
   <si>
-    <t>En este período la Dirección de Comunicación no ejerció recursos para la contratación de publicidad oficial.</t>
+    <t>Impresiones y publicaciones</t>
+  </si>
+  <si>
+    <t>Difusión por Televisión, Radio y otros Medios</t>
+  </si>
+  <si>
+    <t>Difusión por Televisión, Radio</t>
+  </si>
+  <si>
+    <t>CRI4776</t>
+  </si>
+  <si>
+    <t>AEKY-300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PA - 0197500317</t>
+  </si>
+  <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Promoción escolar</t>
+  </si>
+  <si>
+    <t>Difundir los diferentes eventos, internos y externos</t>
+  </si>
+  <si>
+    <t>Mayor captación de estudiantes</t>
+  </si>
+  <si>
+    <t>Componente 2</t>
+  </si>
+  <si>
+    <t>Dirección de Planeación</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>18-25</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Convocatoria de examen admisión</t>
+  </si>
+  <si>
+    <t>Publicación de convocatorias</t>
+  </si>
+  <si>
+    <t>Impresión de volantes y otros materiales</t>
+  </si>
+  <si>
+    <t>51 spots de radio</t>
+  </si>
+  <si>
+    <t>1 Transmisión de entrevistas en una emisión de noticiario</t>
+  </si>
+  <si>
+    <t>Spots de radio</t>
+  </si>
+  <si>
+    <t>Participación en programa radiofónico</t>
+  </si>
+  <si>
+    <t>3 millares de volantes; 4 lonas y 1 tela con escudo heráldico</t>
+  </si>
+  <si>
+    <t>2 Planas en suplemento Universitarios y 2 planas en periódico impreso</t>
+  </si>
+  <si>
+    <t>Difusión spots para radio.</t>
+  </si>
+  <si>
+    <t>Participación en noticiero de radio.</t>
+  </si>
+  <si>
+    <t>Publicación de convocatoria.</t>
+  </si>
+  <si>
+    <t>Impresión de materiales de la oferta educativa</t>
+  </si>
+  <si>
+    <t>Grupo Impresor Criterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIC140523LG9
+</t>
+  </si>
+  <si>
+    <t>MEOE861212CT5</t>
+  </si>
+  <si>
+    <t>B2B</t>
+  </si>
+  <si>
+    <t>Enirique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado </t>
+  </si>
+  <si>
+    <t>Omaña</t>
+  </si>
+  <si>
+    <t>Editorial Caballero S.A. de C.V</t>
+  </si>
+  <si>
+    <t>ECA7202016T2</t>
+  </si>
+  <si>
+    <t>Corporación Radiofónica de Pachuca S de RL de C.V.</t>
+  </si>
+  <si>
+    <t>CRP6901076S1</t>
+  </si>
+  <si>
+    <t>Grupo ACIR</t>
+  </si>
+  <si>
+    <t>Grupo Siete</t>
+  </si>
+  <si>
+    <t>Enrique Mercado Omaña</t>
+  </si>
+  <si>
+    <t>Se contrató la publicación de la convocatorias de ingreso a los Programas Educativos de Ingeniería y licenciaturas.</t>
+  </si>
+  <si>
+    <t>Se envío a imprimir material que se utiliza en la difusión de la oferta educativa.</t>
+  </si>
+  <si>
+    <t>Se contrataron spots para difundir la convocatoria para ingreso a los Programas Educativos de ingenierías y licenciatura.</t>
+  </si>
+  <si>
+    <t>Se contrató espacio radiofónico para difundir las actividades académicas, culturales y deportivas de la UPP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acuerdo a la Ley de Egresos del Gobierno del Estado de Hidalgo, en razón del monto ejercido, corresponde al proceso de adjudicación directa.  </t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/23_b/facturas/Factura%20Criterio.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/23_b/facturas/Factura%20EM.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/23_b/facturas/Factura%20de%20grupo%20siete.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/23_b/facturas/Factura%20de%20ACIR%20Radio.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -593,6 +741,21 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -646,10 +809,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -660,31 +824,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -711,39 +892,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -778,7 +959,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,151 +1003,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,10 +1182,10 @@
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
@@ -998,11 +1203,12 @@
     <col min="25" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="46" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="46" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="46" style="8" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="36.5703125" customWidth="1"/>
+    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
@@ -1011,40 +1217,42 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:34" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+    </row>
+    <row r="3" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1134,7 +1342,7 @@
       <c r="AC4" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="AE4" t="s">
@@ -1238,7 +1446,7 @@
       <c r="AC5" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="AE5" t="s">
@@ -1255,42 +1463,42 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
     </row>
     <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1380,7 +1588,7 @@
       <c r="AC7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AD7" s="9" t="s">
         <v>79</v>
       </c>
       <c r="AE7" s="2" t="s">
@@ -1396,55 +1604,413 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
-      <c r="B8" s="4">
-        <v>44562</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44651</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="AG8" s="4">
-        <v>44659</v>
-      </c>
-      <c r="AH8" s="12" t="s">
-        <v>176</v>
-      </c>
+      <c r="B8" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C8" s="5">
+        <v>44742</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2022</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P8" s="7">
+        <v>12500</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="U8" s="5">
+        <v>44652</v>
+      </c>
+      <c r="V8" s="5">
+        <v>44712</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>44753</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>44753</v>
+      </c>
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C9" s="5">
+        <v>44742</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2022</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P9" s="7">
+        <v>12500</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="U9" s="5">
+        <v>44652</v>
+      </c>
+      <c r="V9" s="5">
+        <v>44712</v>
+      </c>
+      <c r="W9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>44753</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>44753</v>
+      </c>
+      <c r="AH9" s="3"/>
+    </row>
+    <row r="10" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C10" s="5">
+        <v>44742</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2022</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P10" s="7">
+        <v>12500</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="U10" s="5">
+        <v>44652</v>
+      </c>
+      <c r="V10" s="5">
+        <v>44712</v>
+      </c>
+      <c r="W10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>44753</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>44753</v>
+      </c>
+      <c r="AH10" s="3"/>
+    </row>
+    <row r="11" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C11" s="5">
+        <v>44742</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2022</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="P11" s="7">
+        <v>12500</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="U11" s="5">
+        <v>44652</v>
+      </c>
+      <c r="V11" s="5">
+        <v>44712</v>
+      </c>
+      <c r="W11" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>4</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE11" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>44753</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>44753</v>
+      </c>
+      <c r="AH11" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1453,26 +2019,26 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D29">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F29">
       <formula1>Hidden_25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H29">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J29">
       <formula1>Hidden_49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S29">
       <formula1>Hidden_518</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W29">
       <formula1>Hidden_622</formula1>
     </dataValidation>
   </dataValidations>
@@ -1482,9 +2048,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1535,34 +2103,34 @@
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" t="s">
         <v>132</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>133</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>134</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>136</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>137</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>138</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>139</v>
-      </c>
-      <c r="J2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1570,34 +2138,174 @@
         <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>151</v>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="3">
+        <v>361002</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="3">
+        <v>361002</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="3">
+        <v>36201</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E6" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="3">
+        <v>36201</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
@@ -1607,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1626,7 +2334,7 @@
     <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="65.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1640,10 +2348,10 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1661,42 +2369,42 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" t="s">
         <v>153</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>154</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>155</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>156</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>157</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>158</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>159</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>160</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>161</v>
-      </c>
-      <c r="K2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1704,40 +2412,150 @@
         <v>119</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>174</v>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I4" s="5">
+        <v>44652</v>
+      </c>
+      <c r="J4" s="5">
+        <v>44681</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I5" s="5">
+        <v>44652</v>
+      </c>
+      <c r="J5" s="5">
+        <v>44681</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1318</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I6" s="5">
+        <v>44652</v>
+      </c>
+      <c r="J6" s="5">
+        <v>44681</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I7" s="5">
+        <v>44652</v>
+      </c>
+      <c r="J7" s="5">
+        <v>44681</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1"/>
+    <hyperlink ref="L5" r:id="rId2"/>
+    <hyperlink ref="L6" r:id="rId3"/>
+    <hyperlink ref="L7" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1952,9 +2770,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2060,6 +2880,116 @@
         <v>128</v>
       </c>
     </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201">
@@ -2072,25 +3002,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>129</v>
-      </c>
-    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF899E3-7CAA-4A15-A1AA-19D4C4BB7D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
   <si>
     <t>46588</t>
   </si>
@@ -560,168 +566,14 @@
     <t>Dirección de Comunicación Social (UPP)</t>
   </si>
   <si>
-    <t>Impresiones y publicaciones</t>
-  </si>
-  <si>
-    <t>Difusión por Televisión, Radio y otros Medios</t>
-  </si>
-  <si>
-    <t>Difusión por Televisión, Radio</t>
-  </si>
-  <si>
-    <t>CRI4776</t>
-  </si>
-  <si>
-    <t>AEKY-300</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PA - 0197500317</t>
-  </si>
-  <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>Promoción escolar</t>
-  </si>
-  <si>
-    <t>Difundir los diferentes eventos, internos y externos</t>
-  </si>
-  <si>
-    <t>Mayor captación de estudiantes</t>
-  </si>
-  <si>
-    <t>Componente 2</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación</t>
-  </si>
-  <si>
-    <t>Hidalgo</t>
-  </si>
-  <si>
-    <t>Superior</t>
-  </si>
-  <si>
-    <t>18-25</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>Convocatoria de examen admisión</t>
-  </si>
-  <si>
-    <t>Publicación de convocatorias</t>
-  </si>
-  <si>
-    <t>Impresión de volantes y otros materiales</t>
-  </si>
-  <si>
-    <t>51 spots de radio</t>
-  </si>
-  <si>
-    <t>1 Transmisión de entrevistas en una emisión de noticiario</t>
-  </si>
-  <si>
-    <t>Spots de radio</t>
-  </si>
-  <si>
-    <t>Participación en programa radiofónico</t>
-  </si>
-  <si>
-    <t>3 millares de volantes; 4 lonas y 1 tela con escudo heráldico</t>
-  </si>
-  <si>
-    <t>2 Planas en suplemento Universitarios y 2 planas en periódico impreso</t>
-  </si>
-  <si>
-    <t>Difusión spots para radio.</t>
-  </si>
-  <si>
-    <t>Participación en noticiero de radio.</t>
-  </si>
-  <si>
-    <t>Publicación de convocatoria.</t>
-  </si>
-  <si>
-    <t>Impresión de materiales de la oferta educativa</t>
-  </si>
-  <si>
-    <t>Grupo Impresor Criterio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIC140523LG9
-</t>
-  </si>
-  <si>
-    <t>MEOE861212CT5</t>
-  </si>
-  <si>
-    <t>B2B</t>
-  </si>
-  <si>
-    <t>Enirique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercado </t>
-  </si>
-  <si>
-    <t>Omaña</t>
-  </si>
-  <si>
-    <t>Editorial Caballero S.A. de C.V</t>
-  </si>
-  <si>
-    <t>ECA7202016T2</t>
-  </si>
-  <si>
-    <t>Corporación Radiofónica de Pachuca S de RL de C.V.</t>
-  </si>
-  <si>
-    <t>CRP6901076S1</t>
-  </si>
-  <si>
-    <t>Grupo ACIR</t>
-  </si>
-  <si>
-    <t>Grupo Siete</t>
-  </si>
-  <si>
-    <t>Enrique Mercado Omaña</t>
-  </si>
-  <si>
-    <t>Se contrató la publicación de la convocatorias de ingreso a los Programas Educativos de Ingeniería y licenciaturas.</t>
-  </si>
-  <si>
-    <t>Se envío a imprimir material que se utiliza en la difusión de la oferta educativa.</t>
-  </si>
-  <si>
-    <t>Se contrataron spots para difundir la convocatoria para ingreso a los Programas Educativos de ingenierías y licenciatura.</t>
-  </si>
-  <si>
-    <t>Se contrató espacio radiofónico para difundir las actividades académicas, culturales y deportivas de la UPP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De acuerdo a la Ley de Egresos del Gobierno del Estado de Hidalgo, en razón del monto ejercido, corresponde al proceso de adjudicación directa.  </t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/23_b/facturas/Factura%20Criterio.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/23_b/facturas/Factura%20EM.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/23_b/facturas/Factura%20de%20grupo%20siete.pdf</t>
-  </si>
-  <si>
-    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2022/Abril-Junio/23_b/facturas/Factura%20de%20ACIR%20Radio.pdf</t>
+    <t xml:space="preserve">En este período no se llevó a cabo Contratación de servicios de publicidad oficial. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -745,14 +597,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -809,11 +653,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -836,15 +679,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -854,18 +690,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -924,7 +762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -957,9 +795,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,6 +847,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1167,11 +1039,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="AE3" workbookViewId="0">
+      <selection activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,12 +1075,11 @@
     <col min="25" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="46" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="46" style="8" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="46" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
@@ -1217,42 +1088,42 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1342,7 +1213,7 @@
       <c r="AC4" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AD4" t="s">
         <v>12</v>
       </c>
       <c r="AE4" t="s">
@@ -1446,7 +1317,7 @@
       <c r="AC5" t="s">
         <v>43</v>
       </c>
-      <c r="AD5" s="8" t="s">
+      <c r="AD5" t="s">
         <v>44</v>
       </c>
       <c r="AE5" t="s">
@@ -1463,42 +1334,42 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
     </row>
     <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1588,7 +1459,7 @@
       <c r="AC7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AD7" s="8" t="s">
         <v>79</v>
       </c>
       <c r="AE7" s="2" t="s">
@@ -1604,7 +1475,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
@@ -1614,403 +1485,45 @@
       <c r="C8" s="5">
         <v>44742</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2022</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="P8" s="7">
-        <v>12500</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="U8" s="5">
-        <v>44652</v>
-      </c>
-      <c r="V8" s="5">
-        <v>44712</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>1</v>
-      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
       <c r="AE8" s="4" t="s">
         <v>173</v>
       </c>
       <c r="AF8" s="5">
-        <v>44753</v>
+        <v>44844</v>
       </c>
       <c r="AG8" s="5">
-        <v>44753</v>
-      </c>
-      <c r="AH8" s="3"/>
-    </row>
-    <row r="9" spans="1:34" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="5">
-        <v>44652</v>
-      </c>
-      <c r="C9" s="5">
-        <v>44742</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L9" s="3">
-        <v>2022</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="P9" s="7">
-        <v>12500</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="U9" s="5">
-        <v>44652</v>
-      </c>
-      <c r="V9" s="5">
-        <v>44712</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="3">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF9" s="5">
-        <v>44753</v>
-      </c>
-      <c r="AG9" s="5">
-        <v>44753</v>
-      </c>
-      <c r="AH9" s="3"/>
-    </row>
-    <row r="10" spans="1:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="5">
-        <v>44652</v>
-      </c>
-      <c r="C10" s="5">
-        <v>44742</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2022</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="P10" s="7">
-        <v>12500</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="U10" s="5">
-        <v>44652</v>
-      </c>
-      <c r="V10" s="5">
-        <v>44712</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB10" s="3">
-        <v>3</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>3</v>
-      </c>
-      <c r="AE10" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF10" s="5">
-        <v>44753</v>
-      </c>
-      <c r="AG10" s="5">
-        <v>44753</v>
-      </c>
-      <c r="AH10" s="3"/>
-    </row>
-    <row r="11" spans="1:34" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="5">
-        <v>44652</v>
-      </c>
-      <c r="C11" s="5">
-        <v>44742</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L11" s="3">
-        <v>2022</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="P11" s="7">
-        <v>12500</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="U11" s="5">
-        <v>44652</v>
-      </c>
-      <c r="V11" s="5">
-        <v>44712</v>
-      </c>
-      <c r="W11" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>4</v>
-      </c>
-      <c r="AC11" s="3">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="3">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF11" s="5">
-        <v>44753</v>
-      </c>
-      <c r="AG11" s="5">
-        <v>44753</v>
-      </c>
-      <c r="AH11" s="3"/>
+        <v>44844</v>
+      </c>
+      <c r="AH8" s="16" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2023,35 +1536,36 @@
     <mergeCell ref="G2:K2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Hidden_49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Hidden_518</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Hidden_622</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A4" sqref="A4:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2168,157 +1682,17 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C4" s="3">
-        <v>361002</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E4" s="3">
-        <v>25000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>25000</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I4" s="3">
-        <v>25000</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C5" s="3">
-        <v>361002</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="3">
-        <v>25000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>25000</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="I5" s="3">
-        <v>25000</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="3">
-        <v>36201</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="3">
-        <v>25000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>25000</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I6" s="3">
-        <v>25000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="3">
-        <v>36201</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="3">
-        <v>25000</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>25000</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I7" s="3">
-        <v>25000</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>25000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,123 +1819,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I4" s="5">
-        <v>44652</v>
-      </c>
-      <c r="J4" s="5">
-        <v>44681</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I5" s="5">
-        <v>44652</v>
-      </c>
-      <c r="J5" s="5">
-        <v>44681</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1318</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I6" s="5">
-        <v>44652</v>
-      </c>
-      <c r="J6" s="5">
-        <v>44681</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I7" s="5">
-        <v>44652</v>
-      </c>
-      <c r="J7" s="5">
-        <v>44681</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1"/>
-    <hyperlink ref="L5" r:id="rId2"/>
-    <hyperlink ref="L6" r:id="rId3"/>
-    <hyperlink ref="L7" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2589,7 +1853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2622,7 +1886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2685,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2708,7 +1972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2741,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2769,11 +2033,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,119 +2144,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H54" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>Hidden_1_Tabla_3939507</formula1>
     </dataValidation>
   </dataValidations>
@@ -3001,7 +2155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF899E3-7CAA-4A15-A1AA-19D4C4BB7D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -566,13 +560,13 @@
     <t>Dirección de Comunicación Social (UPP)</t>
   </si>
   <si>
-    <t xml:space="preserve">En este período no se llevó a cabo Contratación de servicios de publicidad oficial. </t>
+    <t>En este período no se llevó a cabo Contratación de servicios de publicidad oficial.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -682,6 +676,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -698,9 +695,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,7 +756,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -795,26 +789,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -847,23 +824,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1039,11 +999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE3" workbookViewId="0">
-      <selection activeCell="AG13" sqref="AG13"/>
+    <sheetView tabSelected="1" topLeftCell="AF3" workbookViewId="0">
+      <selection activeCell="AG12" sqref="AG12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1039,7 @@
     <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.5703125" customWidth="1"/>
+    <col min="34" max="34" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
@@ -1088,42 +1048,42 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="14" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="12" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1334,42 +1294,42 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="10"/>
-      <c r="AF6" s="10"/>
-      <c r="AG6" s="10"/>
-      <c r="AH6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
     </row>
     <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -1475,7 +1435,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2022</v>
       </c>
@@ -1521,7 +1481,7 @@
       <c r="AG8" s="5">
         <v>44844</v>
       </c>
-      <c r="AH8" s="16" t="s">
+      <c r="AH8" s="9" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1536,22 +1496,22 @@
     <mergeCell ref="G2:K2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
       <formula1>Hidden_25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8">
       <formula1>Hidden_49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8">
       <formula1>Hidden_518</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
       <formula1>Hidden_622</formula1>
     </dataValidation>
   </dataValidations>
@@ -1561,7 +1521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -1688,7 +1648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -1825,7 +1785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1853,7 +1813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1886,7 +1846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1949,7 +1909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1972,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2005,7 +1965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2033,7 +1993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -2146,7 +2106,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H54" xr:uid="{00000000-0002-0000-0700-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H54">
       <formula1>Hidden_1_Tabla_3939507</formula1>
     </dataValidation>
   </dataValidations>
@@ -2155,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -1002,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF3" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,7 +1039,7 @@
     <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="46" customWidth="1"/>
+    <col min="34" max="34" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
@@ -1440,10 +1440,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="5">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="5">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>

--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
+    <workbookView xWindow="750" yWindow="540" windowWidth="13815" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,12 @@
     <definedName name="Hidden_518">Hidden_5!$A$1:$A$4</definedName>
     <definedName name="Hidden_622">Hidden_6!$A$1:$A$3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="201">
   <si>
     <t>46588</t>
   </si>
@@ -425,9 +425,15 @@
     <t>Descripción breve del las razones que justifican</t>
   </si>
   <si>
+    <t>Licitación pública</t>
+  </si>
+  <si>
     <t>Adjudicación directa</t>
   </si>
   <si>
+    <t>Invitación restringida</t>
+  </si>
+  <si>
     <t>51016</t>
   </si>
   <si>
@@ -557,17 +563,89 @@
     <t>Hipervínculo a la factura</t>
   </si>
   <si>
+    <t>Dirección de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Impresión de volantes y otros materiales</t>
+  </si>
+  <si>
+    <t>2 Rollup para ingenierías, licenciaturas y posgrados; 3 millares de Volantes para ingenierías, licenciaturas y posgrados, así como un telar.</t>
+  </si>
+  <si>
+    <t>Promoción escolar</t>
+  </si>
+  <si>
+    <t>Convocatoria de examen de admisión</t>
+  </si>
+  <si>
+    <t>Difundir los diferentes eventos, internos y externos</t>
+  </si>
+  <si>
+    <t>Mayor captación de estudiantes</t>
+  </si>
+  <si>
+    <t>Componente 2</t>
+  </si>
+  <si>
+    <t>Dirección de Planeación</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>18-25</t>
+  </si>
+  <si>
     <t>Dirección de Comunicación Social (UPP)</t>
   </si>
   <si>
-    <t>En este período no se llevó a cabo Contratación de servicios de publicidad oficial.</t>
+    <t>1 Lona impresa; 4 lonas display; 1000 boligrafos blancos de tinta azul; serigrafía para 1000 bolígrafos; 150 libretas con logos impresos.</t>
+  </si>
+  <si>
+    <t>B2B</t>
+  </si>
+  <si>
+    <t>Enirique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado </t>
+  </si>
+  <si>
+    <t>Omaña</t>
+  </si>
+  <si>
+    <t>Enrique Mercado Omaña</t>
+  </si>
+  <si>
+    <t>MEOE861212CT5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acuerdo a la Ley de Egresos del Gobierno del Estado de Hidalgo, en razón del monto ejercido, corresponde al proceso de adjudicación directa.  </t>
+  </si>
+  <si>
+    <t>Se envío a imprimir material que se utiliza en la difusión de la oferta educativa.</t>
+  </si>
+  <si>
+    <t>Impresiones y publicaciones</t>
+  </si>
+  <si>
+    <t>Impresión de materiales de la oferta educativa</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RaXWZ7NVPN8Eamc2sGuE0oUjsqBbkruB/view?usp=share_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1YqeRlYRSlH7RMNipx-AOQdTSwPV1h_SG/view?usp=share_link</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -595,8 +673,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,12 +695,17 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFE1E1E1"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -637,31 +728,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -670,34 +747,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,9 +787,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1000,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH8"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,9 +1093,9 @@
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="35.28515625" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
@@ -1039,7 +1118,7 @@
     <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="42.85546875" customWidth="1"/>
+    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
@@ -1047,43 +1126,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="15" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="3" spans="1:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:34" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="13" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1294,246 +1369,399 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
+      <c r="AH6" s="13"/>
     </row>
     <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="R7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="S7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="T7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="U7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="V7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="W7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AB7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AC7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AD7" s="8" t="s">
+      <c r="AD7" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AE7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AF7" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AG7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AH7" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2022</v>
       </c>
-      <c r="B8" s="5">
-        <v>44743</v>
-      </c>
-      <c r="C8" s="5">
-        <v>44834</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>44844</v>
-      </c>
-      <c r="AG8" s="5">
-        <v>44844</v>
-      </c>
-      <c r="AH8" s="9" t="s">
-        <v>174</v>
-      </c>
+      <c r="B8" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P8" s="2">
+        <v>12500</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="U8" s="3">
+        <v>45019</v>
+      </c>
+      <c r="V8" s="3">
+        <v>45077</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AH8" s="2"/>
+    </row>
+    <row r="9" spans="1:34" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="3">
+        <v>44835</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44926</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="P9" s="8">
+        <v>25996.76</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="U9" s="3">
+        <v>45019</v>
+      </c>
+      <c r="V9" s="3">
+        <v>45077</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>44936</v>
+      </c>
+      <c r="AH9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A6:AH6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D9">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F9">
       <formula1>Hidden_25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H9">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J9">
       <formula1>Hidden_49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S9">
       <formula1>Hidden_518</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W9">
       <formula1>Hidden_622</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
@@ -1577,82 +1805,145 @@
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="9" t="s">
         <v>149</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="2">
+        <v>361002</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="11">
+        <v>12500</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="11">
+        <v>12500</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I4" s="2">
+        <v>12500</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="11">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" s="2">
+        <v>361002</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="11">
+        <v>25996.76</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="11">
+        <v>25996.76</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" s="2">
+        <v>25996.76</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="11">
+        <v>25996.76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD20"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1959,7 @@
     <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="65.7109375" customWidth="1"/>
+    <col min="12" max="12" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1682,10 +1973,10 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1703,83 +1994,139 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="G3" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="I3" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="J3" s="9" t="s">
         <v>172</v>
       </c>
+      <c r="K3" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="11">
+        <v>12500</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45019</v>
+      </c>
+      <c r="J4" s="3">
+        <v>45077</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1318</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="11">
+        <v>25996.76</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45019</v>
+      </c>
+      <c r="J5" s="3">
+        <v>45077</v>
+      </c>
+      <c r="K5" s="2">
+        <v>204</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1"/>
+    <hyperlink ref="L5" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1994,10 +2341,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,40 +2420,104 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="9" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H54">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H5">
       <formula1>Hidden_1_Tabla_3939507</formula1>
     </dataValidation>
   </dataValidations>
@@ -2116,17 +2527,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="540" windowWidth="13815" windowHeight="9150"/>
+    <workbookView xWindow="390" yWindow="555" windowWidth="9015" windowHeight="5835"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="177">
   <si>
     <t>46588</t>
   </si>
@@ -563,89 +563,17 @@
     <t>Hipervínculo a la factura</t>
   </si>
   <si>
-    <t>Dirección de Comunicación Social e Imagen Institucional</t>
-  </si>
-  <si>
-    <t>Impresión de volantes y otros materiales</t>
-  </si>
-  <si>
-    <t>2 Rollup para ingenierías, licenciaturas y posgrados; 3 millares de Volantes para ingenierías, licenciaturas y posgrados, así como un telar.</t>
-  </si>
-  <si>
-    <t>Promoción escolar</t>
-  </si>
-  <si>
-    <t>Convocatoria de examen de admisión</t>
-  </si>
-  <si>
-    <t>Difundir los diferentes eventos, internos y externos</t>
-  </si>
-  <si>
-    <t>Mayor captación de estudiantes</t>
-  </si>
-  <si>
-    <t>Componente 2</t>
-  </si>
-  <si>
-    <t>Dirección de Planeación</t>
-  </si>
-  <si>
-    <t>Hidalgo</t>
-  </si>
-  <si>
-    <t>Medio</t>
-  </si>
-  <si>
-    <t>18-25</t>
-  </si>
-  <si>
     <t>Dirección de Comunicación Social (UPP)</t>
   </si>
   <si>
-    <t>1 Lona impresa; 4 lonas display; 1000 boligrafos blancos de tinta azul; serigrafía para 1000 bolígrafos; 150 libretas con logos impresos.</t>
-  </si>
-  <si>
-    <t>B2B</t>
-  </si>
-  <si>
-    <t>Enirique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercado </t>
-  </si>
-  <si>
-    <t>Omaña</t>
-  </si>
-  <si>
-    <t>Enrique Mercado Omaña</t>
-  </si>
-  <si>
-    <t>MEOE861212CT5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De acuerdo a la Ley de Egresos del Gobierno del Estado de Hidalgo, en razón del monto ejercido, corresponde al proceso de adjudicación directa.  </t>
-  </si>
-  <si>
-    <t>Se envío a imprimir material que se utiliza en la difusión de la oferta educativa.</t>
-  </si>
-  <si>
-    <t>Impresiones y publicaciones</t>
-  </si>
-  <si>
-    <t>Impresión de materiales de la oferta educativa</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RaXWZ7NVPN8Eamc2sGuE0oUjsqBbkruB/view?usp=share_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1YqeRlYRSlH7RMNipx-AOQdTSwPV1h_SG/view?usp=share_link</t>
+    <t>En este período que se informa no se ejercieron recursos para la contratación de servicios de publicidad oficial.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -673,16 +601,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,17 +615,12 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FFE1E1E1"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -728,58 +643,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -787,6 +696,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1079,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="AF2" workbookViewId="0">
+      <selection activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,9 +1005,9 @@
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="35.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
@@ -1118,7 +1030,7 @@
     <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="55" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
@@ -1127,38 +1039,38 @@
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:34" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:34" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="15" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1369,350 +1281,196 @@
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8"/>
     </row>
     <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="Q7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="T7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="U7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="V7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="X7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Y7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="AA7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="AB7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AC7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AD7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AF7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AG7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AH7" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="2" t="s">
+    <row r="8" spans="1:34" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44927</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45016</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="AF8" s="5">
+        <v>45026</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>45026</v>
+      </c>
+      <c r="AH8" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2023</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="P8" s="2">
-        <v>12500</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="U8" s="3">
-        <v>45019</v>
-      </c>
-      <c r="V8" s="3">
-        <v>45077</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>44936</v>
-      </c>
-      <c r="AH8" s="2"/>
-    </row>
-    <row r="9" spans="1:34" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="3">
-        <v>44835</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44926</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2023</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="P9" s="8">
-        <v>25996.76</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="R9" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="S9" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="U9" s="3">
-        <v>45019</v>
-      </c>
-      <c r="V9" s="3">
-        <v>45077</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y9" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AE9" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>44936</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>44936</v>
-      </c>
-      <c r="AH9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1725,43 +1483,42 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
       <formula1>Hidden_25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
       <formula1>Hidden_49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S201">
       <formula1>Hidden_518</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201">
       <formula1>Hidden_622</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
@@ -1836,115 +1593,50 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="1" t="s">
         <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="2">
-        <v>361002</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E4" s="11">
-        <v>12500</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="11">
-        <v>12500</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I4" s="2">
-        <v>12500</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="11">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C5" s="2">
-        <v>361002</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E5" s="11">
-        <v>25996.76</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="11">
-        <v>25996.76</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" s="2">
-        <v>25996.76</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="11">
-        <v>25996.76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1959,7 +1651,7 @@
     <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="57.7109375" customWidth="1"/>
+    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -2033,100 +1725,44 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="11">
-        <v>12500</v>
-      </c>
-      <c r="I4" s="3">
-        <v>45019</v>
-      </c>
-      <c r="J4" s="3">
-        <v>45077</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1318</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="11">
-        <v>25996.76</v>
-      </c>
-      <c r="I5" s="3">
-        <v>45019</v>
-      </c>
-      <c r="J5" s="3">
-        <v>45077</v>
-      </c>
-      <c r="K5" s="2">
-        <v>204</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="L4" r:id="rId1"/>
-    <hyperlink ref="L5" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2341,11 +1977,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2420,104 +2054,40 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="1" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H5">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201">
       <formula1>Hidden_1_Tabla_3939507</formula1>
     </dataValidation>
   </dataValidations>

--- a/xlsx/a69_f23_bUPPachuca.xlsx
+++ b/xlsx/a69_f23_bUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\UPP Vo. Bo. Uno 2do Tri 2023\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46E5CB7-D503-43FB-8090-2CD77D9F6277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="9015" windowHeight="5835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -14,26 +20,30 @@
     <sheet name="Hidden_4" sheetId="5" r:id="rId5"/>
     <sheet name="Hidden_5" sheetId="6" r:id="rId6"/>
     <sheet name="Hidden_6" sheetId="7" r:id="rId7"/>
-    <sheet name="Tabla_393950" sheetId="8" r:id="rId8"/>
-    <sheet name="Hidden_1_Tabla_393950" sheetId="9" r:id="rId9"/>
-    <sheet name="Tabla_393951" sheetId="10" r:id="rId10"/>
-    <sheet name="Tabla_393952" sheetId="11" r:id="rId11"/>
+    <sheet name="Hidden_7" sheetId="8" r:id="rId8"/>
+    <sheet name="Tabla_393950" sheetId="9" r:id="rId9"/>
+    <sheet name="Hidden_1_Tabla_393950" sheetId="10" r:id="rId10"/>
+    <sheet name="Hidden_2_Tabla_393950" sheetId="11" r:id="rId11"/>
+    <sheet name="Tabla_393951" sheetId="12" r:id="rId12"/>
+    <sheet name="Tabla_393952" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="Hidden_1_Tabla_3939507">Hidden_1_Tabla_393950!$A$1:$A$3</definedName>
+    <definedName name="Hidden_1_Tabla_3939506">Hidden_1_Tabla_393950!$A$1:$A$2</definedName>
     <definedName name="Hidden_13">Hidden_1!$A$1:$A$3</definedName>
+    <definedName name="Hidden_2_Tabla_3939508">Hidden_2_Tabla_393950!$A$1:$A$3</definedName>
     <definedName name="Hidden_25">Hidden_2!$A$1:$A$4</definedName>
     <definedName name="Hidden_37">Hidden_3!$A$1:$A$10</definedName>
     <definedName name="Hidden_49">Hidden_4!$A$1:$A$2</definedName>
     <definedName name="Hidden_518">Hidden_5!$A$1:$A$4</definedName>
     <definedName name="Hidden_622">Hidden_6!$A$1:$A$3</definedName>
+    <definedName name="Hidden_723">Hidden_7!$A$1:$A$3</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="207">
   <si>
     <t>46588</t>
   </si>
@@ -149,6 +159,9 @@
     <t>393957</t>
   </si>
   <si>
+    <t>570775</t>
+  </si>
+  <si>
     <t>393939</t>
   </si>
   <si>
@@ -215,19 +228,19 @@
     <t>Tipo (catálogo)</t>
   </si>
   <si>
-    <t>Nombre de la campaña o aviso Institucional, en su caso</t>
+    <t>Nombre de la campaña o aviso Institucional, en su caso (Redactado con perspectiva de género)</t>
   </si>
   <si>
     <t>Año de la campaña</t>
   </si>
   <si>
-    <t>Tema de la campaña o aviso institucional</t>
+    <t>Tema de la campaña o aviso institucional (Redactado con perspectiva de género)</t>
   </si>
   <si>
     <t>Objetivo institucional</t>
   </si>
   <si>
-    <t>Objetivo de comunicación</t>
+    <t>Objetivo de comunicación (Redactado con perspectiva de género)</t>
   </si>
   <si>
     <t>Costo por unidad</t>
@@ -251,7 +264,10 @@
     <t xml:space="preserve">Fecha de término de la campaña o aviso institucional </t>
   </si>
   <si>
-    <t>Sexo (catálogo)</t>
+    <t>ESTE CRITERIO APLICA PARA EJERCICIOS ANTERIORES AL 01/07/2023 -&gt; Sexo (catálogo)</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Sexo (catálogo)</t>
   </si>
   <si>
     <t>Lugar de residencia</t>
@@ -368,6 +384,15 @@
     <t>Femenino y masculino</t>
   </si>
   <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujeres y Hombres</t>
+  </si>
+  <si>
     <t>51007</t>
   </si>
   <si>
@@ -383,6 +408,9 @@
     <t>51015</t>
   </si>
   <si>
+    <t>77193</t>
+  </si>
+  <si>
     <t>51011</t>
   </si>
   <si>
@@ -401,16 +429,16 @@
     <t>Razón social</t>
   </si>
   <si>
-    <t>Nombre(s)</t>
-  </si>
-  <si>
-    <t>Primer apellido</t>
-  </si>
-  <si>
-    <t>Segundo apellido</t>
-  </si>
-  <si>
-    <t>Nombre(s) de los proveedores y/o responsables</t>
+    <t>Nombre(s) de la/s persona/s proveedora/s y/o responsable/s de publicar la campaña o la comunicación</t>
+  </si>
+  <si>
+    <t>Primer apellido de la/s persona/s proveedora/s y/o responsable/s de publicar la campaña o la comunicación</t>
+  </si>
+  <si>
+    <t>Segundo apellido de la/s persona/s proveedora/s y/o responsable/s de publicar la campaña o la comunicación</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA PARA EJERCICIOS ANTERIORES AL 01/07/2023 -&gt; Nombre(s) de los proveedores y/o responsables</t>
   </si>
   <si>
     <t>Registro Federal de Contribuyente</t>
@@ -422,7 +450,7 @@
     <t>Fundamento jurídico del proceso de contratación</t>
   </si>
   <si>
-    <t>Descripción breve del las razones que justifican</t>
+    <t>Descripción breve de las razones que justifican la elección del/la proveedor/a</t>
   </si>
   <si>
     <t>Licitación pública</t>
@@ -566,14 +594,87 @@
     <t>Dirección de Comunicación Social (UPP)</t>
   </si>
   <si>
-    <t>En este período que se informa no se ejercieron recursos para la contratación de servicios de publicidad oficial.</t>
+    <t>Dirección de Comunicación Social e Imagen Institucional</t>
+  </si>
+  <si>
+    <t>Publicación de convocatorias</t>
+  </si>
+  <si>
+    <t>4 planas</t>
+  </si>
+  <si>
+    <t>Promoción escolar de la oferta educativa de licenciaturas e ingenierías, dirigida al estudiantado a egresar de las instituciones de educación media superior</t>
+  </si>
+  <si>
+    <t>Convocatoria para el examen admisión</t>
+  </si>
+  <si>
+    <t>Difundir los diferentes eventos, internos y externos</t>
+  </si>
+  <si>
+    <t>Mayor captación de estudiantado</t>
+  </si>
+  <si>
+    <t>Componente 2</t>
+  </si>
+  <si>
+    <t>Dirección de Planeación</t>
+  </si>
+  <si>
+    <t>Hidalgo</t>
+  </si>
+  <si>
+    <t>18-25</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>Grupo Impresor Criterio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIC140523LG9
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acuerdo a la Ley de Egresos del Gobierno del Estado de Hidalgo, en razón del monto ejercido, corresponde al proceso de adjudicación directa.  </t>
+  </si>
+  <si>
+    <t>Se contrató la publicación de la convocatorias de ingreso a los Programas Educativos de Ingeniería y licenciaturas.</t>
+  </si>
+  <si>
+    <t>SNF171020F3A</t>
+  </si>
+  <si>
+    <t>Impresiones y publicaciones</t>
+  </si>
+  <si>
+    <t>Publicación de convocatoria.</t>
+  </si>
+  <si>
+    <t>CRI 6137</t>
+  </si>
+  <si>
+    <t>Milenio Diario</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/23_b/Factura%20Criterio%20Abril%202023.pdf</t>
+  </si>
+  <si>
+    <t>http://transparenciadocs.hidalgo.gob.mx/ENTIDADES/UPPachuca/dir1/2023/SIPOT/2do%20Trimestre/23_b/Factura%20Milenio.pdf</t>
+  </si>
+  <si>
+    <t>De acuerdo con el fundamento de la Ley de Egresos y la Ley de Adquisiciones, las cuales establecen que para la existencia de contratos el servicio prestado debe ser superior a 300 salarios mínimos; por lo que el monto ejercido en cuanto a la publicación de convocatorias, no rebasa dicha cantidad, razón por la cual no se requiere un contrato ya que se realizo con una persona moral. Las tablas adyacentes, hipervínculos y criterios que se encuentran vacíos es porque no lo requiere este procedimiento.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -601,8 +702,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,6 +726,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -653,10 +768,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -664,9 +780,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -674,7 +788,31 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -682,13 +820,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -705,9 +850,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -745,7 +890,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -817,7 +962,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -990,11 +1135,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AI9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF2" workbookViewId="0">
-      <selection activeCell="AH11" sqref="AH11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,15 +1150,15 @@
     <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="65" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" customWidth="1"/>
+    <col min="15" max="15" width="56.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -1021,58 +1166,63 @@
     <col min="20" max="20" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="44" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="46.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="46" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="55" customWidth="1"/>
+    <col min="23" max="23" width="75" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="46" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="77.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:34" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:35" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1293,7 @@
         <v>9</v>
       </c>
       <c r="X4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="s">
         <v>7</v>
@@ -1155,7 +1305,7 @@
         <v>7</v>
       </c>
       <c r="AB4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="s">
         <v>12</v>
@@ -1164,19 +1314,22 @@
         <v>12</v>
       </c>
       <c r="AE4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>13</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1279,239 +1432,460 @@
       <c r="AH5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="AI5" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-    </row>
-    <row r="7" spans="1:34" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="16"/>
+    </row>
+    <row r="7" spans="1:35" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="X7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="X7" s="14" t="s">
         <v>74</v>
       </c>
+      <c r="Y7" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="Z7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+        <v>84</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>2023</v>
       </c>
       <c r="B8" s="5">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="5">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF8" s="5">
-        <v>45026</v>
+        <v>45107</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="6">
+        <v>2023</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="P8" s="9">
+        <v>12500</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="U8" s="5">
+        <v>45019</v>
+      </c>
+      <c r="V8" s="5">
+        <v>45077</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="AG8" s="5">
-        <v>45026</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>176</v>
+        <v>45117</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>45117</v>
+      </c>
+      <c r="AI8" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45017</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45107</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L9" s="6">
+        <v>2023</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="P9" s="10">
+        <v>12500</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="R9" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="U9" s="5">
+        <v>45019</v>
+      </c>
+      <c r="V9" s="5">
+        <v>45077</v>
+      </c>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AE9" s="6">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>45117</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>45117</v>
+      </c>
+      <c r="AI9" s="13" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:AH6"/>
+    <mergeCell ref="A6:AI6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="G2:K2"/>
   </mergeCells>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D201">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D8:D9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Hidden_13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F9" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Hidden_25</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H8:H9" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Hidden_37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J8:J9" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Hidden_49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S8:S9" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>Hidden_518</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W201">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="W8:W9" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>Hidden_622</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X8:X9" xr:uid="{00000000-0002-0000-0000-000006000000}">
+      <formula1>Hidden_723</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1562,69 +1936,131 @@
     </row>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="6">
+        <v>361002</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="11">
+        <v>12500</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="11">
+        <v>12500</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="11">
+        <v>12500</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="11">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="6">
+        <v>361002</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="11">
+        <v>12500</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11">
+        <v>12500</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="11">
+        <v>12500</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="11">
+        <v>12500</v>
       </c>
     </row>
   </sheetData>
@@ -1632,11 +2068,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1651,7 +2089,7 @@
     <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1665,10 +2103,10 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
@@ -1686,89 +2124,141 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="K2" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5">
+        <v>45019</v>
+      </c>
+      <c r="J4" s="5">
+        <v>45044</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5">
+        <v>45019</v>
+      </c>
+      <c r="J5" s="5">
+        <v>45044</v>
+      </c>
+      <c r="K5" s="6">
+        <v>1722</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L4" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1777,17 +2267,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1796,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1805,22 +2295,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1838,52 +2328,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1892,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1901,12 +2391,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +2405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1924,22 +2414,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +2438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1957,17 +2447,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1976,127 +2466,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="50.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H201">
-      <formula1>Hidden_1_Tabla_3939507</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2105,20 +2475,205 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="107.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="114.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="125.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="81.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G4:G94" xr:uid="{00000000-0002-0000-0800-000000000000}">
+      <formula1>Hidden_1_Tabla_3939506</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I4:I94" xr:uid="{00000000-0002-0000-0800-000001000000}">
+      <formula1>Hidden_2_Tabla_3939508</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>